--- a/aprendiendo_nodejs/reportes_excel/datos.xlsx
+++ b/aprendiendo_nodejs/reportes_excel/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Github\Diplomado\aprendiendo_nodejs\reportes_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3379A4F2-79BD-47D1-9D22-15D007BBEB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC982A98-E613-4FEB-89CA-F947B165D170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D3307E6-B583-4C66-8661-08CE7015A5C6}"/>
   </bookViews>
@@ -588,7 +588,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
